--- a/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\Frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3BDBCE-576D-4BA7-B4CC-1ED191F2E66F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA987D3-7B5E-46D9-852D-661B4A9BF9EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Calixthe MATTEI</t>
+  </si>
+  <si>
+    <t>Sur cette image, il faut inverser la couleur des tubes jaunes et verts</t>
   </si>
 </sst>
 </file>
@@ -328,16 +331,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,26 +813,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1235,7 +1238,7 @@
       <c r="F19" s="5">
         <v>0.88</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
     </row>
@@ -1431,7 +1434,7 @@
       <c r="F27" s="5">
         <v>1.05</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="2"/>
       <c r="I27" s="5"/>
     </row>
@@ -1563,7 +1566,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -1587,46 +1590,49 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
+      <c r="L33" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="26">
+      <c r="A63" s="24">
         <v>43690</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H33">

--- a/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\Frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA987D3-7B5E-46D9-852D-661B4A9BF9EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB1B505-E050-4EAD-BCFE-8238A7AF7B69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1236" windowWidth="20640" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
     <sheet name="Calcul Masse volumique Tubes" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests Persos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -122,6 +123,15 @@
   </si>
   <si>
     <t>Sur cette image, il faut inverser la couleur des tubes jaunes et verts</t>
+  </si>
+  <si>
+    <t>ULMTECHNOLOGIE</t>
+  </si>
+  <si>
+    <t>Tout confondu</t>
+  </si>
+  <si>
+    <t>Catalogue</t>
   </si>
 </sst>
 </file>
@@ -223,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,11 +269,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,14 +359,285 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -791,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,26 +1103,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1178,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="0"/>
+        <f>((B17/2)^2)*PI()-((B17/2-C17)^2)*PI()</f>
         <v>131.94689145077132</v>
       </c>
       <c r="E17" s="20">
@@ -1643,12 +1933,12 @@
     <mergeCell ref="D1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThan">
       <formula>175</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F34">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1660,29 +1950,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D40">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="between">
       <formula>$J$10</formula>
       <formula>$J$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="greaterThan">
       <formula>$J$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E40">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="greaterThanOrEqual">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="between">
       <formula>$N$9</formula>
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="between">
       <formula>$N$10</formula>
       <formula>$N$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
+      <formula>$J$9</formula>
+      <formula>$J$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
+      <formula>$J$9</formula>
+      <formula>$J$8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,7 +1996,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,11 +2017,11 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f>PI()*Sheet1!D8</f>
+        <f>PI()*'Etude Structure Primaire'!D8</f>
         <v>72.640288392017681</v>
       </c>
       <c r="B2" s="1">
-        <f>Sheet1!F8/A2</f>
+        <f>'Etude Structure Primaire'!F8/A2</f>
         <v>2.4779637303832605E-3</v>
       </c>
       <c r="C2" s="14">
@@ -1731,121 +2031,121 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f>PI()*Sheet1!D9</f>
+        <f>PI()*'Etude Structure Primaire'!D9</f>
         <v>155.4462693171574</v>
       </c>
       <c r="B3" s="1">
-        <f>Sheet1!F9/A3</f>
+        <f>'Etude Structure Primaire'!F9/A3</f>
         <v>2.5089054997150307E-3</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>PI()*Sheet1!D10</f>
+        <f>PI()*'Etude Structure Primaire'!D10</f>
         <v>199.8594891220595</v>
       </c>
       <c r="B4" s="1">
-        <f>Sheet1!F10/A4</f>
+        <f>'Etude Structure Primaire'!F10/A4</f>
         <v>2.5017576207984637E-3</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f>PI()*Sheet1!D11</f>
+        <f>PI()*'Etude Structure Primaire'!D11</f>
         <v>167.78327481851906</v>
       </c>
       <c r="B5" s="1">
-        <f>Sheet1!F11/A5</f>
+        <f>'Etude Structure Primaire'!F11/A5</f>
         <v>2.5032292429283455E-3</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f>PI()*Sheet1!D12</f>
+        <f>PI()*'Etude Structure Primaire'!D12</f>
         <v>244.27270892696157</v>
       </c>
       <c r="B6" s="1">
-        <f>Sheet1!F12/A6</f>
+        <f>'Etude Structure Primaire'!F12/A6</f>
         <v>2.4972089705788303E-3</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f>PI()*Sheet1!D13</f>
+        <f>PI()*'Etude Structure Primaire'!D13</f>
         <v>273.88152213022971</v>
       </c>
       <c r="B7" s="1">
-        <f>Sheet1!F13/A7</f>
+        <f>'Etude Structure Primaire'!F13/A7</f>
         <v>2.5558496774643761E-3</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f>PI()*Sheet1!D14</f>
+        <f>PI()*'Etude Structure Primaire'!D14</f>
         <v>303.49033533349791</v>
       </c>
       <c r="B8" s="1">
-        <f>Sheet1!F14/A8</f>
+        <f>'Etude Structure Primaire'!F14/A8</f>
         <v>2.5041983599407049E-3</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f>PI()*Sheet1!D15</f>
+        <f>PI()*'Etude Structure Primaire'!D15</f>
         <v>394.7841760435744</v>
       </c>
       <c r="B9" s="1">
-        <f>Sheet1!F15/A9</f>
+        <f>'Etude Structure Primaire'!F15/A9</f>
         <v>2.5076992951478592E-3</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>PI()*Sheet1!D19</f>
+        <f>PI()*'Etude Structure Primaire'!D19</f>
         <v>347.90355513839984</v>
       </c>
       <c r="B10" s="1">
-        <f>Sheet1!F19/A10</f>
+        <f>'Etude Structure Primaire'!F19/A10</f>
         <v>2.5294366412838935E-3</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f>PI()*Sheet1!D20</f>
+        <f>PI()*'Etude Structure Primaire'!D20</f>
         <v>454.00180245011052</v>
       </c>
       <c r="B11" s="1">
-        <f>Sheet1!F20/A11</f>
+        <f>'Etude Structure Primaire'!F20/A11</f>
         <v>2.488976902518297E-3</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>PI()*Sheet1!D25</f>
+        <f>PI()*'Etude Structure Primaire'!D25</f>
         <v>392.31677494330182</v>
       </c>
       <c r="B12" s="1">
-        <f>Sheet1!F25/A12</f>
+        <f>'Etude Structure Primaire'!F25/A12</f>
         <v>2.4979813828802781E-3</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>PI()*Sheet1!D26</f>
+        <f>PI()*'Etude Structure Primaire'!D26</f>
         <v>513.21942885664646</v>
       </c>
       <c r="B13" s="1">
-        <f>Sheet1!F26/A13</f>
+        <f>'Etude Structure Primaire'!F26/A13</f>
         <v>2.4940599050421613E-3</v>
       </c>
       <c r="C13" s="1"/>
@@ -1853,4 +2153,1009 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38401E3-E0D0-4314-90F3-931084C2E20C}">
+  <dimension ref="B3:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="44.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="25">
+        <f>((C5/2)^2)*PI()-((C5/2-D5)^2)*PI()</f>
+        <v>23.122121930420882</v>
+      </c>
+      <c r="F5" s="13">
+        <f>(PI()*(C5^4-(C5-2*D5)^4))/64</f>
+        <v>246.48181977828656</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="25">
+        <v>12</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="25">
+        <f>((C6/2)^2)*PI()-((C6/2-D6)^2)*PI()</f>
+        <v>49.480084294039244</v>
+      </c>
+      <c r="F6" s="13">
+        <f>(PI()*(C6^4-(C6-2*D6)^4))/64</f>
+        <v>695.81368538492688</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="25">
+        <v>15</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="25">
+        <f>((C7/2)^2)*PI()-((C7/2-D7)^2)*PI()</f>
+        <v>63.617251235193308</v>
+      </c>
+      <c r="F7" s="13">
+        <f>(PI()*(C7^4-(C7-2*D7)^4))/64</f>
+        <v>1467.1728566116458</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="25">
+        <v>18</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <f>((C8/2)^2)*PI()-((C8/2-D8)^2)*PI()</f>
+        <v>53.407075111026472</v>
+      </c>
+      <c r="F8" s="13">
+        <f>(PI()*(C8^4-(C8-2*D8)^4))/64</f>
+        <v>1936.0064727747101</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="25">
+        <v>18</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="25">
+        <f>((C9/2)^2)*PI()-((C9/2-D9)^2)*PI()</f>
+        <v>77.754418176347372</v>
+      </c>
+      <c r="F9" s="13">
+        <f>(PI()*(C9^4-(C9-2*D9)^4))/64</f>
+        <v>2667.9484736759196</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="25">
+        <f>((C10/2)^2)*PI()-((C10/2-D10)^2)*PI()</f>
+        <v>87.179196137116776</v>
+      </c>
+      <c r="F10" s="13">
+        <f>(PI()*(C10^4-(C10-2*D10)^4))/64</f>
+        <v>3754.1541336545906</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="29">
+        <v>20</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="E11" s="30">
+        <f>((C11/2)^2)*PI()-((C11/2-D11)^2)*PI()</f>
+        <v>81.807072699478255</v>
+      </c>
+      <c r="F11" s="31">
+        <f>(PI()*(C11^4-(C11-2*D11)^4))/64</f>
+        <v>3557.7895917003079</v>
+      </c>
+      <c r="G11" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E11</f>
+        <v>0.64395191154256715</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="29">
+        <v>20</v>
+      </c>
+      <c r="D12" s="29">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30">
+        <f>((C12/2)^2)*PI()-((C12/2-D12)^2)*PI()</f>
+        <v>160.22122533307947</v>
+      </c>
+      <c r="F12" s="31">
+        <f>(PI()*(C12^4-(C12-2*D12)^4))/64</f>
+        <v>5968.2406436572091</v>
+      </c>
+      <c r="G12" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E12</f>
+        <v>1.2611961401179308</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="25">
+        <f>((C13/2)^2)*PI()-((C13/2-D13)^2)*PI()</f>
+        <v>96.60397409788618</v>
+      </c>
+      <c r="F13" s="13">
+        <f>(PI()*(C13^4-(C13-2*D13)^4))/64</f>
+        <v>5101.8973820446117</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="25">
+        <f>((C14/2)^2)*PI()-((C14/2-D14)^2)*PI()</f>
+        <v>125.66370614359175</v>
+      </c>
+      <c r="F14" s="13">
+        <f>(PI()*(C14^4-(C14-2*D14)^4))/64</f>
+        <v>6346.0171602513819</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="20">
+        <f>((C15/2)^2)*PI()-((C15/2-D15)^2)*PI()</f>
+        <v>101.3163630782708</v>
+      </c>
+      <c r="F15" s="20">
+        <f>(PI()*(C15^4-(C15-2*D15)^4))/64</f>
+        <v>5882.6813312321001</v>
+      </c>
+      <c r="G15" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E15</f>
+        <v>0.79752108860398518</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
+        <v>23</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <f>((C16/2)^2)*PI()-((C16/2-D16)^2)*PI()</f>
+        <v>131.94689145077132</v>
+      </c>
+      <c r="F16" s="20">
+        <f>(PI()*(C16^4-(C16-2*D16)^4))/64</f>
+        <v>7339.5458369491544</v>
+      </c>
+      <c r="G16" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E16</f>
+        <v>1.038632115391237</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
+        <v>24</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="20">
+        <f>((C17/2)^2)*PI()-((C17/2-D17)^2)*PI()</f>
+        <v>106.02875205865553</v>
+      </c>
+      <c r="F17" s="20">
+        <f>(PI()*(C17^4-(C17-2*D17)^4))/64</f>
+        <v>6739.4525527282913</v>
+      </c>
+      <c r="G17" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E17</f>
+        <v>0.83461509272510115</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="25">
+        <f>((C18/2)^2)*PI()-((C18/2-D18)^2)*PI()</f>
+        <v>110.7411410390402</v>
+      </c>
+      <c r="F18" s="13">
+        <f>(PI()*(C18^4-(C18-2*D18)^4))/64</f>
+        <v>7675.7453382684744</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25">
+        <f>((C19/2)^2)*PI()-((C19/2-D19)^2)*PI()</f>
+        <v>144.5132620651305</v>
+      </c>
+      <c r="F19" s="13">
+        <f>(PI()*(C19^4-(C19-2*D19)^4))/64</f>
+        <v>9628.1960850893192</v>
+      </c>
+      <c r="G19" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="30">
+        <v>25</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1.4</v>
+      </c>
+      <c r="E20" s="30">
+        <f>((C20/2)^2)*PI()-((C20/2-D20)^2)*PI()</f>
+        <v>103.79822127460682</v>
+      </c>
+      <c r="F20" s="31">
+        <f>(PI()*(C20^4-(C20-2*D20)^4))/64</f>
+        <v>7251.8627293504023</v>
+      </c>
+      <c r="G20" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E20</f>
+        <v>0.81705726410777346</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="30">
+        <v>25</v>
+      </c>
+      <c r="D21" s="30">
+        <v>3</v>
+      </c>
+      <c r="E21" s="30">
+        <f>((C21/2)^2)*PI()-((C21/2-D21)^2)*PI()</f>
+        <v>207.34511513692638</v>
+      </c>
+      <c r="F21" s="31">
+        <f>(PI()*(C21^4-(C21-2*D21)^4))/64</f>
+        <v>12777.642720313086</v>
+      </c>
+      <c r="G21" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E21</f>
+        <v>1.6321361813290869</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20">
+        <v>26</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="20">
+        <f>((C22/2)^2)*PI()-((C22/2-D22)^2)*PI()</f>
+        <v>115.45353001942493</v>
+      </c>
+      <c r="F22" s="20">
+        <f>(PI()*(C22^4-(C22-2*D22)^4))/64</f>
+        <v>8695.0939795879367</v>
+      </c>
+      <c r="G22" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E22</f>
+        <v>0.90880310096733252</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20">
+        <v>26</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20">
+        <f>((C23/2)^2)*PI()-((C23/2-D23)^2)*PI()</f>
+        <v>150.79644737231007</v>
+      </c>
+      <c r="F23" s="20">
+        <f>(PI()*(C23^4-(C23-2*D23)^4))/64</f>
+        <v>10932.74243449248</v>
+      </c>
+      <c r="G23" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E23</f>
+        <v>1.1870081318756993</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20">
+        <v>27</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E24" s="20">
+        <f>((C24/2)^2)*PI()-((C24/2-D24)^2)*PI()</f>
+        <v>120.16591899980955</v>
+      </c>
+      <c r="F24" s="20">
+        <f>(PI()*(C24^4-(C24-2*D24)^4))/64</f>
+        <v>9801.0327684219701</v>
+      </c>
+      <c r="G24" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E24</f>
+        <v>0.9458971050884476</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20">
+        <v>27</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20">
+        <f>((C25/2)^2)*PI()-((C25/2-D25)^2)*PI()</f>
+        <v>157.07963267948963</v>
+      </c>
+      <c r="F25" s="20">
+        <f>(PI()*(C25^4-(C25-2*D25)^4))/64</f>
+        <v>12350.386119424875</v>
+      </c>
+      <c r="G25" s="20">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E25</f>
+        <v>1.2364668040371867</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="25">
+        <f>((C26/2)^2)*PI()-((C26/2-D26)^2)*PI()</f>
+        <v>124.87830798019422</v>
+      </c>
+      <c r="F26" s="13">
+        <f>(PI()*(C26^4-(C26-2*D26)^4))/64</f>
+        <v>10997.095996505859</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.98</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="25">
+        <f>((C27/2)^2)*PI()-((C27/2-D27)^2)*PI()</f>
+        <v>163.3628179866692</v>
+      </c>
+      <c r="F27" s="13">
+        <f>(PI()*(C27^4-(C27-2*D27)^4))/64</f>
+        <v>13885.839528866885</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1.28</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="30">
+        <v>28</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="30">
+        <f>((C28/2)^2)*PI()-((C28/2-D28)^2)*PI()</f>
+        <v>76.623444821055045</v>
+      </c>
+      <c r="F28" s="31">
+        <f>(PI()*(C28^4-(C28-2*D28)^4))/64</f>
+        <v>7041.8861376670156</v>
+      </c>
+      <c r="G28" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E28</f>
+        <v>0.60314850700933964</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="30">
+        <v>28</v>
+      </c>
+      <c r="D29" s="30">
+        <v>1.4</v>
+      </c>
+      <c r="E29" s="30">
+        <f>((C29/2)^2)*PI()-((C29/2-D29)^2)*PI()</f>
+        <v>116.99291041968388</v>
+      </c>
+      <c r="F29" s="31">
+        <f>(PI()*(C29^4-(C29-2*D29)^4))/64</f>
+        <v>10376.101225121767</v>
+      </c>
+      <c r="G29" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E29</f>
+        <v>0.92092047564689661</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="11">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E30" s="12">
+        <f>((C30/2)^2)*PI()-((C30/2-D30)^2)*PI()</f>
+        <v>134.30308594096368</v>
+      </c>
+      <c r="F30" s="13">
+        <f>(PI()*(C30^4-(C30-2*D30)^4))/64</f>
+        <v>13673.732937364362</v>
+      </c>
+      <c r="G30" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="25">
+        <f>((C31/2)^2)*PI()-((C31/2-D31)^2)*PI()</f>
+        <v>175.92918860102839</v>
+      </c>
+      <c r="F31" s="13">
+        <f>(PI()*(C31^4-(C31-2*D31)^4))/64</f>
+        <v>17329.025077201299</v>
+      </c>
+      <c r="G31" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="30">
+        <v>30</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="30">
+        <f>((C32/2)^2)*PI()-((C32/2-D32)^2)*PI()</f>
+        <v>82.278311597516677</v>
+      </c>
+      <c r="F32" s="31">
+        <f>(PI()*(C32^4-(C32-2*D32)^4))/64</f>
+        <v>8717.592809535885</v>
+      </c>
+      <c r="G32" s="25">
+        <f>PI()*'Calcul Masse volumique Tubes'!C$2*E32</f>
+        <v>0.64766131195467835</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <f>((C33/2)^2)*PI()-((C33/2-D33)^2)*PI()</f>
+        <v>188.49555921538763</v>
+      </c>
+      <c r="F33" s="13">
+        <f>(PI()*(C33^4-(C33-2*D33)^4))/64</f>
+        <v>21299.998191338796</v>
+      </c>
+      <c r="G33" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="4">
+        <f>((C34/2)^2)*PI()-((C34/2-D34)^2)*PI()</f>
+        <v>157.86503084288711</v>
+      </c>
+      <c r="F34" s="13">
+        <f>(PI()*(C34^4-(C34-2*D34)^4))/64</f>
+        <v>22189.903397853319</v>
+      </c>
+      <c r="G34" s="25">
+        <v>1.24</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4">
+        <v>35</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4">
+        <f>((C35/2)^2)*PI()-((C35/2-D35)^2)*PI()</f>
+        <v>207.34511513692632</v>
+      </c>
+      <c r="F35" s="13">
+        <f>(PI()*(C35^4-(C35-2*D35)^4))/64</f>
+        <v>28328.526355582562</v>
+      </c>
+      <c r="G35" s="25">
+        <v>1.63</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4">
+        <v>35</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E36" s="4">
+        <f>((C36/2)^2)*PI()-((C36/2-D36)^2)*PI()</f>
+        <v>255.25440310417071</v>
+      </c>
+      <c r="F36" s="13">
+        <f>(PI()*(C36^4-(C36-2*D36)^4))/64</f>
+        <v>33900.975412272666</v>
+      </c>
+      <c r="G36" s="25">
+        <v>2</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <f>((C37/2)^2)*PI()-((C37/2-D37)^2)*PI()</f>
+        <v>301.59289474462014</v>
+      </c>
+      <c r="F37" s="13">
+        <f>(PI()*(C37^4-(C37-2*D37)^4))/64</f>
+        <v>38943.182533899075</v>
+      </c>
+      <c r="G37" s="25">
+        <v>2.37</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J37">
+    <sortCondition ref="C5"/>
+  </sortState>
+  <conditionalFormatting sqref="G5:G30">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="between" id="{00ACFBD2-9A4B-494B-8109-9DCCE3EE6EAB}">
+            <xm:f>'Etude Structure Primaire'!$J$10</xm:f>
+            <xm:f>'Etude Structure Primaire'!$J$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="between" id="{20599F42-5F8D-40B2-A1CF-13C9B1A80816}">
+            <xm:f>'Etude Structure Primaire'!$J$9</xm:f>
+            <xm:f>'Etude Structure Primaire'!$J$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" id="{BBEAA45B-E084-413D-B6BC-893E3DAEBCF9}">
+            <xm:f>'Etude Structure Primaire'!$J$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E5:E1048576 E1:E3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="between" id="{4C759452-CEBD-4F83-8FF8-02C9A8D17CD4}">
+            <xm:f>'Etude Structure Primaire'!$N$10</xm:f>
+            <xm:f>'Etude Structure Primaire'!$N$9</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="between" id="{063C426D-BB69-471F-853F-C6FA1BB9961B}">
+            <xm:f>'Etude Structure Primaire'!$N$9</xm:f>
+            <xm:f>'Etude Structure Primaire'!$N$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="1" operator="greaterThan" id="{060184A5-5E20-43B5-BFF3-C85F3F60FACA}">
+            <xm:f>'Etude Structure Primaire'!$N$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F5:F1048576 F1:F3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\Frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB1B505-E050-4EAD-BCFE-8238A7AF7B69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B487A57-3B22-425C-9447-832D55F0D816}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1236" windowWidth="20640" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
@@ -359,105 +359,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -499,48 +436,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -549,92 +444,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -805,6 +614,56 @@
         <a:xfrm>
           <a:off x="268877" y="6567352"/>
           <a:ext cx="7116606" cy="2699888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1328057</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>892323</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>98335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEDB638-4EDB-4487-9D54-237DD7B9305A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9731828" y="6564086"/>
+          <a:ext cx="9045724" cy="4191363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1103,26 +962,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H6" s="5" t="s">
@@ -1933,7 +1792,7 @@
     <mergeCell ref="D1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>175</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1950,37 +1809,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D40">
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
       <formula>$J$10</formula>
       <formula>$J$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
       <formula>$J$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E40">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
       <formula>$N$9</formula>
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>$N$10</formula>
       <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
       <formula>$J$9</formula>
       <formula>$J$8</formula>
     </cfRule>
@@ -2159,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38401E3-E0D0-4314-90F3-931084C2E20C}">
   <dimension ref="B3:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,11 +2084,11 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="25">
-        <f>((C5/2)^2)*PI()-((C5/2-D5)^2)*PI()</f>
+        <f t="shared" ref="E5:E37" si="0">((C5/2)^2)*PI()-((C5/2-D5)^2)*PI()</f>
         <v>23.122121930420882</v>
       </c>
       <c r="F5" s="13">
-        <f>(PI()*(C5^4-(C5-2*D5)^4))/64</f>
+        <f t="shared" ref="F5:F37" si="1">(PI()*(C5^4-(C5-2*D5)^4))/64</f>
         <v>246.48181977828656</v>
       </c>
       <c r="G5" s="25">
@@ -2250,11 +2109,11 @@
         <v>1.5</v>
       </c>
       <c r="E6" s="25">
-        <f>((C6/2)^2)*PI()-((C6/2-D6)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>49.480084294039244</v>
       </c>
       <c r="F6" s="13">
-        <f>(PI()*(C6^4-(C6-2*D6)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>695.81368538492688</v>
       </c>
       <c r="G6" s="25">
@@ -2275,11 +2134,11 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="25">
-        <f>((C7/2)^2)*PI()-((C7/2-D7)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>63.617251235193308</v>
       </c>
       <c r="F7" s="13">
-        <f>(PI()*(C7^4-(C7-2*D7)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>1467.1728566116458</v>
       </c>
       <c r="G7" s="25">
@@ -2300,11 +2159,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="25">
-        <f>((C8/2)^2)*PI()-((C8/2-D8)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>53.407075111026472</v>
       </c>
       <c r="F8" s="13">
-        <f>(PI()*(C8^4-(C8-2*D8)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>1936.0064727747101</v>
       </c>
       <c r="G8" s="25">
@@ -2325,11 +2184,11 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="25">
-        <f>((C9/2)^2)*PI()-((C9/2-D9)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>77.754418176347372</v>
       </c>
       <c r="F9" s="13">
-        <f>(PI()*(C9^4-(C9-2*D9)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>2667.9484736759196</v>
       </c>
       <c r="G9" s="25">
@@ -2350,11 +2209,11 @@
         <v>1.5</v>
       </c>
       <c r="E10" s="25">
-        <f>((C10/2)^2)*PI()-((C10/2-D10)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>87.179196137116776</v>
       </c>
       <c r="F10" s="13">
-        <f>(PI()*(C10^4-(C10-2*D10)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>3754.1541336545906</v>
       </c>
       <c r="G10" s="25">
@@ -2365,21 +2224,21 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>20</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>1.4</v>
       </c>
-      <c r="E11" s="30">
-        <f>((C11/2)^2)*PI()-((C11/2-D11)^2)*PI()</f>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
         <v>81.807072699478255</v>
       </c>
-      <c r="F11" s="31">
-        <f>(PI()*(C11^4-(C11-2*D11)^4))/64</f>
+      <c r="F11" s="29">
+        <f t="shared" si="1"/>
         <v>3557.7895917003079</v>
       </c>
       <c r="G11" s="25">
@@ -2391,21 +2250,21 @@
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>20</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>3</v>
       </c>
-      <c r="E12" s="30">
-        <f>((C12/2)^2)*PI()-((C12/2-D12)^2)*PI()</f>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
         <v>160.22122533307947</v>
       </c>
-      <c r="F12" s="31">
-        <f>(PI()*(C12^4-(C12-2*D12)^4))/64</f>
+      <c r="F12" s="29">
+        <f t="shared" si="1"/>
         <v>5968.2406436572091</v>
       </c>
       <c r="G12" s="25">
@@ -2427,11 +2286,11 @@
         <v>1.5</v>
       </c>
       <c r="E13" s="25">
-        <f>((C13/2)^2)*PI()-((C13/2-D13)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>96.60397409788618</v>
       </c>
       <c r="F13" s="13">
-        <f>(PI()*(C13^4-(C13-2*D13)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>5101.8973820446117</v>
       </c>
       <c r="G13" s="25">
@@ -2452,11 +2311,11 @@
         <v>2</v>
       </c>
       <c r="E14" s="25">
-        <f>((C14/2)^2)*PI()-((C14/2-D14)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>125.66370614359175</v>
       </c>
       <c r="F14" s="13">
-        <f>(PI()*(C14^4-(C14-2*D14)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>6346.0171602513819</v>
       </c>
       <c r="G14" s="25">
@@ -2475,11 +2334,11 @@
         <v>1.5</v>
       </c>
       <c r="E15" s="20">
-        <f>((C15/2)^2)*PI()-((C15/2-D15)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>101.3163630782708</v>
       </c>
       <c r="F15" s="20">
-        <f>(PI()*(C15^4-(C15-2*D15)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>5882.6813312321001</v>
       </c>
       <c r="G15" s="20">
@@ -2499,11 +2358,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="20">
-        <f>((C16/2)^2)*PI()-((C16/2-D16)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>131.94689145077132</v>
       </c>
       <c r="F16" s="20">
-        <f>(PI()*(C16^4-(C16-2*D16)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>7339.5458369491544</v>
       </c>
       <c r="G16" s="20">
@@ -2523,11 +2382,11 @@
         <v>1.5</v>
       </c>
       <c r="E17" s="20">
-        <f>((C17/2)^2)*PI()-((C17/2-D17)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>106.02875205865553</v>
       </c>
       <c r="F17" s="20">
-        <f>(PI()*(C17^4-(C17-2*D17)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>6739.4525527282913</v>
       </c>
       <c r="G17" s="20">
@@ -2551,11 +2410,11 @@
         <v>1.5</v>
       </c>
       <c r="E18" s="25">
-        <f>((C18/2)^2)*PI()-((C18/2-D18)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>110.7411410390402</v>
       </c>
       <c r="F18" s="13">
-        <f>(PI()*(C18^4-(C18-2*D18)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>7675.7453382684744</v>
       </c>
       <c r="G18" s="25">
@@ -2576,11 +2435,11 @@
         <v>2</v>
       </c>
       <c r="E19" s="25">
-        <f>((C19/2)^2)*PI()-((C19/2-D19)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>144.5132620651305</v>
       </c>
       <c r="F19" s="13">
-        <f>(PI()*(C19^4-(C19-2*D19)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>9628.1960850893192</v>
       </c>
       <c r="G19" s="25">
@@ -2591,21 +2450,21 @@
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="28">
         <v>25</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <v>1.4</v>
       </c>
-      <c r="E20" s="30">
-        <f>((C20/2)^2)*PI()-((C20/2-D20)^2)*PI()</f>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
         <v>103.79822127460682</v>
       </c>
-      <c r="F20" s="31">
-        <f>(PI()*(C20^4-(C20-2*D20)^4))/64</f>
+      <c r="F20" s="29">
+        <f t="shared" si="1"/>
         <v>7251.8627293504023</v>
       </c>
       <c r="G20" s="25">
@@ -2619,21 +2478,21 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>25</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <v>3</v>
       </c>
-      <c r="E21" s="30">
-        <f>((C21/2)^2)*PI()-((C21/2-D21)^2)*PI()</f>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
         <v>207.34511513692638</v>
       </c>
-      <c r="F21" s="31">
-        <f>(PI()*(C21^4-(C21-2*D21)^4))/64</f>
+      <c r="F21" s="29">
+        <f t="shared" si="1"/>
         <v>12777.642720313086</v>
       </c>
       <c r="G21" s="25">
@@ -2653,11 +2512,11 @@
         <v>1.5</v>
       </c>
       <c r="E22" s="20">
-        <f>((C22/2)^2)*PI()-((C22/2-D22)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>115.45353001942493</v>
       </c>
       <c r="F22" s="20">
-        <f>(PI()*(C22^4-(C22-2*D22)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>8695.0939795879367</v>
       </c>
       <c r="G22" s="20">
@@ -2677,11 +2536,11 @@
         <v>2</v>
       </c>
       <c r="E23" s="20">
-        <f>((C23/2)^2)*PI()-((C23/2-D23)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>150.79644737231007</v>
       </c>
       <c r="F23" s="20">
-        <f>(PI()*(C23^4-(C23-2*D23)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>10932.74243449248</v>
       </c>
       <c r="G23" s="20">
@@ -2701,11 +2560,11 @@
         <v>1.5</v>
       </c>
       <c r="E24" s="20">
-        <f>((C24/2)^2)*PI()-((C24/2-D24)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>120.16591899980955</v>
       </c>
       <c r="F24" s="20">
-        <f>(PI()*(C24^4-(C24-2*D24)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>9801.0327684219701</v>
       </c>
       <c r="G24" s="20">
@@ -2725,11 +2584,11 @@
         <v>2</v>
       </c>
       <c r="E25" s="20">
-        <f>((C25/2)^2)*PI()-((C25/2-D25)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>157.07963267948963</v>
       </c>
       <c r="F25" s="20">
-        <f>(PI()*(C25^4-(C25-2*D25)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>12350.386119424875</v>
       </c>
       <c r="G25" s="20">
@@ -2751,11 +2610,11 @@
         <v>1.5</v>
       </c>
       <c r="E26" s="25">
-        <f>((C26/2)^2)*PI()-((C26/2-D26)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>124.87830798019422</v>
       </c>
       <c r="F26" s="13">
-        <f>(PI()*(C26^4-(C26-2*D26)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>10997.095996505859</v>
       </c>
       <c r="G26" s="25">
@@ -2776,11 +2635,11 @@
         <v>2</v>
       </c>
       <c r="E27" s="25">
-        <f>((C27/2)^2)*PI()-((C27/2-D27)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>163.3628179866692</v>
       </c>
       <c r="F27" s="13">
-        <f>(PI()*(C27^4-(C27-2*D27)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>13885.839528866885</v>
       </c>
       <c r="G27" s="25">
@@ -2791,21 +2650,21 @@
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="28">
         <v>28</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="28">
         <v>0.9</v>
       </c>
-      <c r="E28" s="30">
-        <f>((C28/2)^2)*PI()-((C28/2-D28)^2)*PI()</f>
+      <c r="E28" s="28">
+        <f t="shared" si="0"/>
         <v>76.623444821055045</v>
       </c>
-      <c r="F28" s="31">
-        <f>(PI()*(C28^4-(C28-2*D28)^4))/64</f>
+      <c r="F28" s="29">
+        <f t="shared" si="1"/>
         <v>7041.8861376670156</v>
       </c>
       <c r="G28" s="25">
@@ -2817,21 +2676,21 @@
       <c r="J28" s="25"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>28</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <v>1.4</v>
       </c>
-      <c r="E29" s="30">
-        <f>((C29/2)^2)*PI()-((C29/2-D29)^2)*PI()</f>
+      <c r="E29" s="28">
+        <f t="shared" si="0"/>
         <v>116.99291041968388</v>
       </c>
-      <c r="F29" s="31">
-        <f>(PI()*(C29^4-(C29-2*D29)^4))/64</f>
+      <c r="F29" s="29">
+        <f t="shared" si="1"/>
         <v>10376.101225121767</v>
       </c>
       <c r="G29" s="25">
@@ -2853,11 +2712,11 @@
         <v>1.5</v>
       </c>
       <c r="E30" s="12">
-        <f>((C30/2)^2)*PI()-((C30/2-D30)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>134.30308594096368</v>
       </c>
       <c r="F30" s="13">
-        <f>(PI()*(C30^4-(C30-2*D30)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>13673.732937364362</v>
       </c>
       <c r="G30" s="25">
@@ -2878,11 +2737,11 @@
         <v>2</v>
       </c>
       <c r="E31" s="25">
-        <f>((C31/2)^2)*PI()-((C31/2-D31)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>175.92918860102839</v>
       </c>
       <c r="F31" s="13">
-        <f>(PI()*(C31^4-(C31-2*D31)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>17329.025077201299</v>
       </c>
       <c r="G31" s="25">
@@ -2893,21 +2752,21 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="28">
         <v>30</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="28">
         <v>0.9</v>
       </c>
-      <c r="E32" s="30">
-        <f>((C32/2)^2)*PI()-((C32/2-D32)^2)*PI()</f>
+      <c r="E32" s="28">
+        <f t="shared" si="0"/>
         <v>82.278311597516677</v>
       </c>
-      <c r="F32" s="31">
-        <f>(PI()*(C32^4-(C32-2*D32)^4))/64</f>
+      <c r="F32" s="29">
+        <f t="shared" si="1"/>
         <v>8717.592809535885</v>
       </c>
       <c r="G32" s="25">
@@ -2929,11 +2788,11 @@
         <v>2</v>
       </c>
       <c r="E33" s="4">
-        <f>((C33/2)^2)*PI()-((C33/2-D33)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>188.49555921538763</v>
       </c>
       <c r="F33" s="13">
-        <f>(PI()*(C33^4-(C33-2*D33)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>21299.998191338796</v>
       </c>
       <c r="G33" s="25">
@@ -2954,11 +2813,11 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="4">
-        <f>((C34/2)^2)*PI()-((C34/2-D34)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>157.86503084288711</v>
       </c>
       <c r="F34" s="13">
-        <f>(PI()*(C34^4-(C34-2*D34)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>22189.903397853319</v>
       </c>
       <c r="G34" s="25">
@@ -2979,11 +2838,11 @@
         <v>2</v>
       </c>
       <c r="E35" s="4">
-        <f>((C35/2)^2)*PI()-((C35/2-D35)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>207.34511513692632</v>
       </c>
       <c r="F35" s="13">
-        <f>(PI()*(C35^4-(C35-2*D35)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>28328.526355582562</v>
       </c>
       <c r="G35" s="25">
@@ -3004,11 +2863,11 @@
         <v>2.5</v>
       </c>
       <c r="E36" s="4">
-        <f>((C36/2)^2)*PI()-((C36/2-D36)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>255.25440310417071</v>
       </c>
       <c r="F36" s="13">
-        <f>(PI()*(C36^4-(C36-2*D36)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>33900.975412272666</v>
       </c>
       <c r="G36" s="25">
@@ -3029,11 +2888,11 @@
         <v>3</v>
       </c>
       <c r="E37" s="4">
-        <f>((C37/2)^2)*PI()-((C37/2-D37)^2)*PI()</f>
+        <f t="shared" si="0"/>
         <v>301.59289474462014</v>
       </c>
       <c r="F37" s="13">
-        <f>(PI()*(C37^4-(C37-2*D37)^4))/64</f>
+        <f t="shared" si="1"/>
         <v>38943.182533899075</v>
       </c>
       <c r="G37" s="25">
@@ -3044,24 +2903,24 @@
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="32"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:J37">

--- a/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\Frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B487A57-3B22-425C-9447-832D55F0D816}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08455697-38BC-4375-9887-146F93527C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
+++ b/FR_Frame_Body/Frame/Minimum Rules - Primary Structures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calixthe\Desktop\EPSA\Gitkraken\STUF2020\STUF-2020\FR_Frame_Body\Frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08455697-38BC-4375-9887-146F93527C66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4902E464-0423-4806-A191-B39305875AC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="684" windowWidth="21468" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etude Structure Primaire" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Minimum requirements of frame</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Fait par :</t>
   </si>
   <si>
-    <t>v2.0</t>
-  </si>
-  <si>
     <t>Robin CLAMENS</t>
   </si>
   <si>
@@ -132,6 +129,18 @@
   </si>
   <si>
     <t>Catalogue</t>
+  </si>
+  <si>
+    <t>2x + cher que 25x1,5</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>Véhicule</t>
+  </si>
+  <si>
+    <t>Invictus</t>
   </si>
 </sst>
 </file>
@@ -282,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,7 +1752,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="L33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1754,10 +1766,10 @@
         <v>25</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="D60" s="23"/>
     </row>
@@ -1769,7 +1781,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -1777,11 +1789,19 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
-        <v>43690</v>
+        <v>43724</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:H33">
@@ -2016,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38401E3-E0D0-4314-90F3-931084C2E20C}">
-  <dimension ref="B3:J41"/>
+  <dimension ref="A3:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,10 +2058,10 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -2225,7 +2245,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="27">
         <v>20</v>
@@ -2251,7 +2271,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="27">
         <v>20</v>
@@ -2373,7 +2393,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
       <c r="C17" s="20">
         <v>24</v>
@@ -2399,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
         <v>22</v>
       </c>
@@ -2424,7 +2444,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
         <v>22</v>
       </c>
@@ -2449,9 +2469,12 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>32</v>
+      </c>
       <c r="B20" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="28">
         <v>25</v>
@@ -2477,9 +2500,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="28">
         <v>25</v>
@@ -2503,7 +2526,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
       <c r="C22" s="20">
         <v>26</v>
@@ -2527,7 +2550,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
       <c r="C23" s="20">
         <v>26</v>
@@ -2551,7 +2574,7 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
       <c r="C24" s="20">
         <v>27</v>
@@ -2575,7 +2598,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
       <c r="C25" s="20">
         <v>27</v>
@@ -2599,7 +2622,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
         <v>22</v>
       </c>
@@ -2624,7 +2647,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
         <v>22</v>
       </c>
@@ -2649,9 +2672,9 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="28">
         <v>28</v>
@@ -2675,9 +2698,9 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="28">
         <v>28</v>
@@ -2701,7 +2724,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2749,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
         <v>22</v>
       </c>
@@ -2751,9 +2774,9 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="28">
         <v>30</v>
